--- a/학사관리 샘플데이터/샘플-성적데이터.xlsx
+++ b/학사관리 샘플데이터/샘플-성적데이터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="성적데이터" sheetId="1" r:id="rId1"/>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7407,7 +7407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50, 100)</f>
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="0">RANDBETWEEN(50, 100)</f>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
